--- a/venv library root/homework_01.16/luckytest.xlsx
+++ b/venv library root/homework_01.16/luckytest.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskDownload\python13-api-test\venv library root\homework_01.16\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BD05A6-A462-4E9B-9136-0970A05ADC93}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="570" windowWidth="24495" windowHeight="11250"/>
+    <workbookView xWindow="390" yWindow="570" windowWidth="24495" windowHeight="11250" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -52,9 +58,6 @@
     <t>result</t>
   </si>
   <si>
-    <t>正常登陆，无用户名</t>
-  </si>
-  <si>
     <t>手机号码已被注册</t>
   </si>
   <si>
@@ -396,14 +399,18 @@
   </si>
   <si>
     <t>余额不足，请修改提现额度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常注册，无用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,6 +478,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -758,14 +773,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
@@ -776,7 +791,7 @@
     <col min="8" max="8" width="11.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27">
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -802,166 +817,166 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="27">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="27">
+    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="27">
+    </row>
+    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27">
+    </row>
+    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="40.5">
+    </row>
+    <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="27">
+    </row>
+    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27">
+    </row>
+    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
-    <hyperlink ref="C8" r:id="rId6"/>
-    <hyperlink ref="C2" r:id="rId7"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C2" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
@@ -969,12 +984,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -982,12 +997,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -995,12 +1010,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1008,12 +1023,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1021,14 +1036,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="B8:D19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
@@ -1039,7 +1054,7 @@
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1065,135 +1080,135 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1">
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1">
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1">
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1201,14 +1216,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="A13:F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
@@ -1220,7 +1235,7 @@
     <col min="8" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27">
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1246,249 +1261,249 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27">
+    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="67.5">
+    </row>
+    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="27">
+    </row>
+    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27">
+    </row>
+    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27">
+    </row>
+    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="27">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27">
+    </row>
+    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="27">
+    </row>
+    <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="27">
+    </row>
+    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
@@ -1496,14 +1511,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="A14:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.875" style="1" customWidth="1"/>
@@ -1515,7 +1530,7 @@
     <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27">
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1541,281 +1556,281 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27">
+    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="81">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="27">
+    </row>
+    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27">
+    </row>
+    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="27">
-      <c r="B7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="27">
-      <c r="B8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27">
+    </row>
+    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="27">
+    </row>
+    <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="27">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="27">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="27">
+    </row>
+    <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C9" r:id="rId6"/>
-    <hyperlink ref="C10" r:id="rId7"/>
-    <hyperlink ref="C11" r:id="rId8"/>
-    <hyperlink ref="C13" r:id="rId9"/>
-    <hyperlink ref="C7" r:id="rId10"/>
-    <hyperlink ref="C8" r:id="rId11"/>
-    <hyperlink ref="C12" r:id="rId12"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="C7" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="C8" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1823,12 +1838,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1836,12 +1851,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1849,12 +1864,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1862,12 +1877,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/venv library root/homework_01.16/luckytest.xlsx
+++ b/venv library root/homework_01.16/luckytest.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskDownload\python13-api-test\venv library root\homework_01.16\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BD05A6-A462-4E9B-9136-0970A05ADC93}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="570" windowWidth="24495" windowHeight="11250" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="570" windowWidth="24495" windowHeight="11250"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="110">
   <si>
     <t>case_id</t>
   </si>
@@ -113,9 +107,6 @@
   </si>
   <si>
     <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
-  </si>
-  <si>
-    <t>服务器异常（设置等待时间超时）</t>
   </si>
   <si>
     <t>正常登陆（get）</t>
@@ -409,8 +400,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -773,14 +764,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
@@ -791,7 +782,7 @@
     <col min="8" max="8" width="11.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,29 +808,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="27">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="27">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -859,7 +850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="27">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -879,7 +870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="27">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -899,7 +890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="40.5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -919,7 +910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="27">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -939,7 +930,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="27">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -957,26 +948,18 @@
       </c>
       <c r="F8" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C2" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="C2" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
@@ -984,12 +967,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -997,12 +980,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1010,12 +993,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1023,12 +1006,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1036,14 +1019,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
@@ -1054,7 +1037,7 @@
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1080,98 +1063,98 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="27" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -1180,18 +1163,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="27" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -1203,12 +1186,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1216,14 +1199,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
@@ -1235,7 +1218,7 @@
     <col min="8" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1261,207 +1244,207 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:8" ht="67.5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:8" ht="27">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:8" ht="27">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:8" ht="27">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:8" ht="27">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="27">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:8" ht="27">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1469,41 +1452,41 @@
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="C15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
@@ -1511,14 +1494,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="A14:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.875" style="1" customWidth="1"/>
@@ -1530,7 +1513,7 @@
     <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1556,281 +1539,281 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="27">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="81">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:8" ht="27">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:8" ht="27">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="27">
+      <c r="B7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="B7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27">
+      <c r="B8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="B8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:8" ht="27">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:8" ht="27">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="27">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="27">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:8" ht="27">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:8">
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:3">
       <c r="C17" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="C7" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="C8" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C9" r:id="rId6"/>
+    <hyperlink ref="C10" r:id="rId7"/>
+    <hyperlink ref="C11" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C7" r:id="rId10"/>
+    <hyperlink ref="C8" r:id="rId11"/>
+    <hyperlink ref="C12" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1838,12 +1821,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1851,12 +1834,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1864,12 +1847,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1877,12 +1860,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
